--- a/August'21/31.08.2021/HD Capital Statement August-2021.xlsx
+++ b/August'21/31.08.2021/HD Capital Statement August-2021.xlsx
@@ -758,6 +758,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,18 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1159,43 +1159,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1213,8 +1213,8 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="16"/>
@@ -1425,11 +1425,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1469,30 +1469,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="59">
         <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="57">
         <v>25000</v>
       </c>
       <c r="F4">
@@ -1511,8 +1511,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
       <c r="F6">
         <v>8000</v>
       </c>
@@ -1592,8 +1592,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1620,10 +1620,10 @@
     </row>
     <row r="21" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="76"/>
     </row>
     <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">

--- a/August'21/31.08.2021/HD Capital Statement August-2021.xlsx
+++ b/August'21/31.08.2021/HD Capital Statement August-2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t xml:space="preserve">Total Earnings </t>
   </si>
@@ -132,6 +132,27 @@
   </si>
   <si>
     <t>Profit  August-2021</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Total Short</t>
+  </si>
+  <si>
+    <t>6300 TK Deno Discount Aug''21</t>
+  </si>
+  <si>
+    <t>224 Tk Card Discount Aug''21</t>
+  </si>
+  <si>
+    <t>DD Profit Aug''21</t>
+  </si>
+  <si>
+    <t>Short Auu''21</t>
   </si>
 </sst>
 </file>
@@ -599,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,13 +713,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,6 +785,9 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,6 +857,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -846,6 +893,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1159,43 +1211,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1213,8 +1265,8 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="16"/>
@@ -1425,11 +1477,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -1455,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1466,197 +1518,236 @@
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="57">
         <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="55">
         <v>25000</v>
       </c>
-      <c r="F4">
-        <v>12000</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="30">
         <v>2000000</v>
       </c>
-      <c r="F5">
-        <v>8000</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="F6">
-        <v>8000</v>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="E6" s="82" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="83">
         <v>76678.337</v>
       </c>
-      <c r="F7">
-        <v>6500</v>
+      <c r="C7" s="85">
+        <v>77926</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="87">
+        <f>B7-C7</f>
+        <v>-1247.6630000000005</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="84">
         <v>51120</v>
       </c>
-      <c r="F8">
-        <v>1500</v>
+      <c r="C8" s="86">
+        <v>57420</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="87">
+        <f>B8-C8</f>
+        <v>-6300</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="F9">
-        <f>SUM(F4:F8)</f>
-        <v>36000</v>
-      </c>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="36">
         <f>B7+B8</f>
         <v>127798.337</v>
       </c>
+      <c r="D10" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="89">
+        <f>E7+E8</f>
+        <v>-7547.6630000000005</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="39">
         <v>63332</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="39">
         <v>36000</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="36">
         <f>B12+B13</f>
         <v>99332</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="45">
         <f>B10-B15</f>
         <v>28466.337</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="54"/>
-    </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="E17">
+        <v>28466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="52"/>
+      <c r="E18" s="86">
+        <v>7547.66</v>
+      </c>
+      <c r="F18" s="86"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="41">
         <f>B5+B17</f>
         <v>2028466.3370000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="E19" s="90">
+        <f>SUM(E17:E18)</f>
+        <v>36013.660000000003</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="76"/>
-    </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+      <c r="B22" s="75"/>
+      <c r="F22" s="91">
+        <v>7547.66</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="92"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="50">
         <v>28000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="50">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-    </row>
-    <row r="26" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="49" t="s">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+    </row>
+    <row r="26" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="48">
         <f>B25+B24+B23</f>
         <v>43400</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
+    <row r="27" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
